--- a/lesson-18-ai/vanna/docs/LLM-evaluations-1.xlsx
+++ b/lesson-18-ai/vanna/docs/LLM-evaluations-1.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Question-results" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Question-results'!$O$1:$S$4</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Question-results'!$Q$1:$U$4</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -160,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M6" authorId="0">
+    <comment ref="M12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -168,11 +168,11 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">SQL ok, plotly wrong</t>
+          <t xml:space="preserve">Interesting: used table format</t>
         </r>
       </text>
     </comment>
-    <comment ref="M10" authorId="0">
+    <comment ref="M24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -180,11 +180,11 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">SQL ok, plotly not good</t>
+          <t xml:space="preserve">Plotly wrong</t>
         </r>
       </text>
     </comment>
-    <comment ref="M12" authorId="0">
+    <comment ref="N6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -192,11 +192,12 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">SQL ok, plotly not good</t>
+          <t xml:space="preserve">Plotly failed
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0">
+    <comment ref="N19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -204,11 +205,11 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">SQL ok, plotly not good</t>
+          <t xml:space="preserve">Plotly is great</t>
         </r>
       </text>
     </comment>
-    <comment ref="N12" authorId="0">
+    <comment ref="O6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -216,12 +217,11 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">SQL ok, not plotly
-</t>
+          <t xml:space="preserve">SQL ok, plotly wrong</t>
         </r>
       </text>
     </comment>
-    <comment ref="N14" authorId="0">
+    <comment ref="O10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -229,56 +229,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Plotly is nice</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N21" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">SQL error</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Plotly is impressive</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Plotly is impressive
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Add group by month</t>
+          <t xml:space="preserve">SQL ok, plotly not good</t>
         </r>
       </text>
     </comment>
@@ -290,11 +241,11 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Does a nice job of concat first/last name</t>
+          <t xml:space="preserve">SQL ok, plotly not good</t>
         </r>
       </text>
     </comment>
-    <comment ref="O19" authorId="0">
+    <comment ref="P7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -302,11 +253,11 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Missing single-quote</t>
+          <t xml:space="preserve">SQL ok, plotly not good</t>
         </r>
       </text>
     </comment>
-    <comment ref="O21" authorId="0">
+    <comment ref="P12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -314,11 +265,12 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Joined 5 tables (not necessary)</t>
+          <t xml:space="preserve">SQL ok, not plotly
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="P16" authorId="0">
+    <comment ref="P14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -326,11 +278,11 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Plotly failed</t>
+          <t xml:space="preserve">Plotly is nice</t>
         </r>
       </text>
     </comment>
-    <comment ref="Q10" authorId="0">
+    <comment ref="P21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -338,11 +290,11 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Plotly not good</t>
+          <t xml:space="preserve">SQL error</t>
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="0">
+    <comment ref="Q7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -350,11 +302,11 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">SQLite doesn't seem to have a way to do this</t>
+          <t xml:space="preserve">Plotly is impressive</t>
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="0">
+    <comment ref="Q8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -362,12 +314,109 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
+          <t xml:space="preserve">Plotly is impressive
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Add group by month</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Does a nice job of concat first/last name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Missing single-quote</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Joined 5 tables (not necessary)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Plotly failed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Plotly not good</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">SQLite doesn't seem to have a way to do this</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
           <t xml:space="preserve">Timed out
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0">
+    <comment ref="V1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -380,7 +429,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T6" authorId="0">
+    <comment ref="V6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -397,7 +446,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="97">
   <si>
     <t xml:space="preserve">Model Name</t>
   </si>
@@ -592,6 +641,12 @@
   </si>
   <si>
     <t xml:space="preserve">gpt-3.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claude-3.5-sonnet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gemini-1-.5-pro</t>
   </si>
   <si>
     <t xml:space="preserve">starcoder2</t>
@@ -765,7 +820,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -775,13 +830,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE8F2A1"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFE994"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBBE33D"/>
-        <bgColor rgb="FFE8F2A1"/>
+        <bgColor rgb="FFD4EA6B"/>
       </patternFill>
     </fill>
     <fill>
@@ -798,14 +853,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFD428"/>
+        <bgColor rgb="FFFFDE59"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFD428"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD4EA6B"/>
+        <bgColor rgb="FFBBE33D"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF8000"/>
         <bgColor rgb="FFFF972F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE994"/>
+        <bgColor rgb="FFE8F2A1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDE59"/>
+        <bgColor rgb="FFFFD428"/>
       </patternFill>
     </fill>
   </fills>
@@ -843,7 +922,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -897,6 +976,22 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -972,7 +1067,7 @@
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFDE59"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -980,16 +1075,16 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFD4EA6B"/>
       <rgbColor rgb="FFE8F2A1"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFE994"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FFBBE33D"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFD428"/>
       <rgbColor rgb="FFFF972F"/>
       <rgbColor rgb="FFFF8000"/>
       <rgbColor rgb="FF666699"/>
@@ -1339,14 +1434,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:AMJ28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K14" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
       <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
-      <selection pane="bottomRight" activeCell="L2" activeCellId="0" sqref="L2"/>
+      <selection pane="bottomLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
+      <selection pane="bottomRight" activeCell="M18" activeCellId="0" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1356,13 +1451,15 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="45.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="7.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="10.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="13.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="11" style="1" width="7.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="6.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="8.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="8.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="0" width="8.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="13.34"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
         <v>59</v>
       </c>
@@ -1384,732 +1481,892 @@
       <c r="L1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="T1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="S1" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="T1" s="10" t="s">
+      <c r="U1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="V1" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J2" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="U2" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="V2" s="0" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J3" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>69</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="S3" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="U3" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="V3" s="0" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J4" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="U4" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="V4" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J5" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q5" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>69</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="T5" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="V5" s="0" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J6" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="T6" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="V6" s="0" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J7" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="P7" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>69</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="T7" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="V7" s="0" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J8" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="S8" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J9" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J10" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="S10" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J11" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="Q11" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="S11" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J12" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="M12" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>69</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q12" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="S12" s="11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J13" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="R13" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="S13" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J14" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q14" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="R14" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="S14" s="11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J15" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q15" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="R15" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="S15" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J16" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q16" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="R16" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="S16" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J17" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="O17" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="O17" s="0" t="s">
+        <v>69</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q17" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="Q17" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="R17" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="S17" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J18" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q18" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="Q18" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="R18" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="S18" s="11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J19" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="N19" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="O19" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="P19" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q19" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="N19" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="O19" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="P19" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q19" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="R19" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="S19" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J20" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q20" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="R20" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="S20" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J21" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="N21" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>69</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="P21" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q21" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="P21" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q21" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="R21" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="S21" s="11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J22" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P22" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q22" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="R22" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="S22" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J23" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="O23" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="P23" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q23" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="O23" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="P23" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q23" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="R23" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="S23" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J24" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="M24" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="M24" s="16" t="s">
+        <v>69</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P24" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q24" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="Q24" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="R24" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="S24" s="11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J25" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="N25" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="N25" s="17" t="s">
+        <v>69</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="P25" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="P25" s="15" t="s">
+        <v>70</v>
       </c>
       <c r="Q25" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J28" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="K28" s="16" t="n">
+        <v>69</v>
+      </c>
+      <c r="R25" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="S25" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J28" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="K28" s="20" t="n">
         <f aca="false">(24-0)/24*100</f>
         <v>100</v>
       </c>
-      <c r="L28" s="16" t="n">
+      <c r="L28" s="20" t="n">
         <f aca="false">(24-0)/24*100</f>
         <v>100</v>
       </c>
-      <c r="M28" s="16" t="n">
+      <c r="M28" s="20" t="n">
         <f aca="false">(24-1)/24*100</f>
         <v>95.8333333333333</v>
       </c>
-      <c r="N28" s="16" t="n">
+      <c r="N28" s="20" t="n">
+        <f aca="false">(24-1)/24*100</f>
+        <v>95.8333333333333</v>
+      </c>
+      <c r="O28" s="20" t="n">
+        <f aca="false">(24-1)/24*100</f>
+        <v>95.8333333333333</v>
+      </c>
+      <c r="P28" s="20" t="n">
         <f aca="false">(24-2)/24*100</f>
         <v>91.6666666666667</v>
       </c>
-      <c r="O28" s="16" t="n">
+      <c r="Q28" s="20" t="n">
         <f aca="false">(24-3)/24*100</f>
         <v>87.5</v>
       </c>
-      <c r="P28" s="16" t="n">
+      <c r="R28" s="20" t="n">
         <f aca="false">(24-4)/24*100</f>
         <v>83.3333333333333</v>
       </c>
-      <c r="Q28" s="16" t="n">
+      <c r="S28" s="20" t="n">
         <f aca="false">(24-7)/24*100</f>
         <v>70.8333333333333</v>
       </c>
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20"/>
+      <c r="AMI28" s="0"/>
+      <c r="AMJ28" s="0"/>
     </row>
   </sheetData>
-  <autoFilter ref="O1:S4"/>
+  <autoFilter ref="Q1:U4"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
